--- a/attendanceSystem/logging.xlsx
+++ b/attendanceSystem/logging.xlsx
@@ -147,9 +147,6 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -169,227 +166,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1066800" cy="1066800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -692,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +540,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-10-27 10:28:27</t>
+          <t>2023-01-04 13:15:16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -774,7 +550,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.83%</t>
+          <t>80.06%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -784,150 +560,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>datasets\A22801/GAN JOO HAN-2.jpg</t>
+          <t>datasets\A22801/GAN JOO HAN-1.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="88" customHeight="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-10-27 10:28:57</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ARTETA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.37%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Facenet512: 0.25</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>datasets\A22804/ARTETA-1.jpg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="88" customHeight="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2022-10-27 10:30:16</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ARTETA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.90%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Facenet512: 0.25</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>datasets\A22804/ARTETA-1.jpg</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="88" customHeight="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2022-10-27 10:30:42</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SON HEUNG-MIN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>65.13%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Facenet512: 0.25</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>datasets\A22802/SON HEUNG-MIN-2.jpg</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="88" customHeight="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2022-10-27 10:30:46</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SON HEUNG-MIN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.19%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Facenet512: 0.25</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>datasets\A22802/SON HEUNG-MIN-1.jpg</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
